--- a/机器人统计新表8.1_葛程.xlsx
+++ b/机器人统计新表8.1_葛程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="18180" activeTab="2"/>
+    <workbookView windowHeight="18450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回答结果统计" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="回答明细" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">回答明细!$A$1:$E$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">回答明细!$A$1:$E$377</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766">
   <si>
     <t>时间</t>
   </si>
@@ -4574,15 +4574,18 @@
 2016-08-02 23:00:34 小琼 关联问题 3：我填了B47 增值税纳税申报表附列资料（五）（不动产分期抵扣计算表），还要填什么地方吗？
 解答：B47第2列等于B07增值税纳税申报表附列资料（二）（本期进项税额明细）第9行税额；B47第3列等于B07增值税纳税申报表附列资料（二）（本期进项税额明细）第10行税额。</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -4631,8 +4634,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4645,8 +4649,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4667,11 +4686,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4683,16 +4724,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4706,24 +4740,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4736,32 +4754,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4821,7 +4824,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4839,13 +4932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4857,19 +4944,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4881,115 +4992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5001,7 +5004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5028,6 +5031,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5043,55 +5066,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5111,17 +5096,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5133,10 +5136,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5145,137 +5148,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5359,9 +5362,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5532,7 +5532,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5795,37 +5795,37 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="46" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -5833,43 +5833,43 @@
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:13">
-      <c r="A2" s="41">
-        <v>42583</v>
-      </c>
-      <c r="B2" s="38">
+      <c r="A2" s="40">
+        <v>42583</v>
+      </c>
+      <c r="B2" s="37">
         <v>49</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>60</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <f t="shared" ref="D2:I2" si="0">B2+C2</f>
         <v>109</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="38">
         <v>57</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="38">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="39">
         <v>51</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="39">
         <v>38</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="39">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="46">
         <v>73</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="46">
         <v>16</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="46">
         <f>J2+K2</f>
         <v>89</v>
       </c>
@@ -5879,47 +5879,47 @@
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="2:12">
-      <c r="B3" s="42">
+      <c r="B3" s="41">
         <f>B2/M2</f>
         <v>0.142441860465116</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <f>C2/M2</f>
         <v>0.174418604651163</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="42">
         <f>D2/M2</f>
         <v>0.316860465116279</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <f>E2/M2</f>
         <v>0.165697674418605</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <f>F2/M2</f>
         <v>0.482558139534884</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <f>G2/M2</f>
         <v>0.148255813953488</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <f>H2/M2</f>
         <v>0.11046511627907</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="47">
         <f>I2/M2</f>
         <v>0.258720930232558</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="48">
         <f>J2/M2</f>
         <v>0.212209302325581</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="48">
         <f>K2/M2</f>
         <v>0.0465116279069767</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="49">
         <f>L2/M2</f>
         <v>0.258720930232558</v>
       </c>
@@ -5952,57 +5952,57 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:7">
-      <c r="B2" s="31">
-        <v>42583</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32">
+      <c r="B2" s="30">
+        <v>42583</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31">
         <v>42602</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2">
         <v>42583</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6010,43 +6010,43 @@
       <c r="A4" s="2">
         <v>42583</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="29"/>
+      <c r="E4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2">
         <v>42583</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6054,43 +6054,43 @@
       <c r="A6" s="2">
         <v>42583</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2">
         <v>42583</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6098,22 +6098,22 @@
       <c r="A8" s="2">
         <v>42583</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6121,22 +6121,22 @@
       <c r="A9" s="2">
         <v>42583</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6144,22 +6144,22 @@
       <c r="A10" s="2">
         <v>42583</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6167,22 +6167,22 @@
       <c r="A11" s="2">
         <v>42583</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6190,43 +6190,43 @@
       <c r="A12" s="2">
         <v>42583</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="2">
         <v>42583</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6234,43 +6234,43 @@
       <c r="A14" s="2">
         <v>42583</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="2">
         <v>42583</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6278,22 +6278,22 @@
       <c r="A16" s="2">
         <v>42583</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6301,22 +6301,22 @@
       <c r="A17" s="2">
         <v>42583</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6324,22 +6324,22 @@
       <c r="A18" s="2">
         <v>42583</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6347,7 +6347,7 @@
       <c r="A19" s="2">
         <v>42583</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -6359,10 +6359,10 @@
       <c r="E19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6370,22 +6370,22 @@
       <c r="A20" s="2">
         <v>42583</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="E20" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6393,22 +6393,22 @@
       <c r="A21" s="2">
         <v>42583</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="E21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6416,64 +6416,64 @@
       <c r="A22" s="2">
         <v>42583</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="2">
         <v>42583</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="2">
         <v>42583</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="E24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6481,22 +6481,22 @@
       <c r="A25" s="2">
         <v>42583</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="30" t="s">
+      <c r="E25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6504,22 +6504,22 @@
       <c r="A26" s="2">
         <v>42583</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="30" t="s">
+      <c r="E26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6527,22 +6527,22 @@
       <c r="A27" s="2">
         <v>42583</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="E27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6550,22 +6550,22 @@
       <c r="A28" s="2">
         <v>42583</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="30" t="s">
+      <c r="E28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6573,22 +6573,22 @@
       <c r="A29" s="2">
         <v>42583</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6596,43 +6596,43 @@
       <c r="A30" s="2">
         <v>42583</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="2">
         <v>42583</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6640,43 +6640,43 @@
       <c r="A32" s="2">
         <v>42583</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="29"/>
+      <c r="E32" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="2">
         <v>42583</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="30" t="s">
+      <c r="E33" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6684,43 +6684,43 @@
       <c r="A34" s="2">
         <v>42583</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="30" t="s">
+      <c r="B34" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="29"/>
+      <c r="E34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="2">
         <v>42583</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="30" t="s">
+      <c r="E35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6728,22 +6728,22 @@
       <c r="A36" s="2">
         <v>42583</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="30" t="s">
+      <c r="B36" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="30" t="s">
+      <c r="E36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6751,43 +6751,43 @@
       <c r="A37" s="2">
         <v>42583</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="30" t="s">
+      <c r="B37" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="2">
         <v>42583</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="30" t="s">
+      <c r="B38" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="30" t="s">
+      <c r="E38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6795,22 +6795,22 @@
       <c r="A39" s="2">
         <v>42583</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="33" t="s">
+      <c r="B39" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="30" t="s">
+      <c r="E39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6830,10 +6830,10 @@
       <c r="E40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="29"/>
+      <c r="F40" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="12">
@@ -6851,10 +6851,10 @@
       <c r="E41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6874,10 +6874,10 @@
       <c r="E42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6897,10 +6897,10 @@
       <c r="E43" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="29" t="s">
+      <c r="F43" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6920,31 +6920,31 @@
       <c r="E44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="29"/>
+      <c r="F44" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="21">
         <v>42583</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="30" t="s">
+      <c r="B45" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="30" t="s">
+      <c r="E45" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6952,85 +6952,85 @@
       <c r="A46" s="21">
         <v>42583</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="30" t="s">
+      <c r="B46" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="29"/>
+      <c r="E46" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="21">
         <v>42583</v>
       </c>
-      <c r="B47" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="30" t="s">
+      <c r="B47" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="28"/>
     </row>
     <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="21">
         <v>42583</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="30" t="s">
+      <c r="B48" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="29"/>
+      <c r="E48" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="21">
         <v>42583</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="30" t="s">
+      <c r="B49" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7038,22 +7038,22 @@
       <c r="A50" s="21">
         <v>42583</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="30" t="s">
+      <c r="B50" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="30" t="s">
+      <c r="E50" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7061,148 +7061,148 @@
       <c r="A51" s="21">
         <v>42583</v>
       </c>
-      <c r="B51" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="30" t="s">
+      <c r="B51" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="29" t="s">
         <v>119</v>
       </c>
       <c r="D51" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="30" t="s">
+      <c r="E51" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="29"/>
+      <c r="G51" s="28"/>
     </row>
     <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="21">
         <v>42583</v>
       </c>
-      <c r="B52" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="30" t="s">
+      <c r="B52" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="29"/>
+      <c r="E52" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="28"/>
     </row>
     <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="21">
         <v>42583</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="30" t="s">
+      <c r="B53" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="29"/>
+      <c r="E53" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="28"/>
     </row>
     <row r="54" customHeight="1" spans="1:7">
       <c r="A54" s="21">
         <v>42583</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="30" t="s">
+      <c r="B54" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="29"/>
+      <c r="E54" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="28"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="21">
         <v>42583</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="30" t="s">
+      <c r="B55" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="29"/>
+      <c r="F55" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="21">
         <v>42583</v>
       </c>
-      <c r="B56" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="30" t="s">
+      <c r="B56" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="29"/>
+      <c r="E56" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" customHeight="1" spans="1:7">
       <c r="A57" s="21">
         <v>42583</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="30" t="s">
+      <c r="B57" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="30" t="s">
+      <c r="E57" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7210,22 +7210,22 @@
       <c r="A58" s="21">
         <v>42583</v>
       </c>
-      <c r="B58" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="30" t="s">
+      <c r="B58" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="30" t="s">
+      <c r="E58" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7233,85 +7233,85 @@
       <c r="A59" s="21">
         <v>42583</v>
       </c>
-      <c r="B59" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="30" t="s">
+      <c r="B59" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="29"/>
+      <c r="E59" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="28"/>
     </row>
     <row r="60" customHeight="1" spans="1:7">
       <c r="A60" s="21">
         <v>42583</v>
       </c>
-      <c r="B60" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="30" t="s">
+      <c r="B60" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="29"/>
+      <c r="E60" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="28"/>
     </row>
     <row r="61" customHeight="1" spans="1:7">
       <c r="A61" s="21">
         <v>42583</v>
       </c>
-      <c r="B61" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="30" t="s">
+      <c r="B61" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="29"/>
+      <c r="E61" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="28"/>
     </row>
     <row r="62" customHeight="1" spans="1:7">
       <c r="A62" s="21">
         <v>42583</v>
       </c>
-      <c r="B62" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="30" t="s">
+      <c r="B62" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7319,85 +7319,85 @@
       <c r="A63" s="21">
         <v>42583</v>
       </c>
-      <c r="B63" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="33" t="s">
+      <c r="B63" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="29"/>
+      <c r="E63" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="28"/>
     </row>
     <row r="64" customHeight="1" spans="1:7">
       <c r="A64" s="21">
         <v>42583</v>
       </c>
-      <c r="B64" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="30" t="s">
+      <c r="B64" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="E64" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="29"/>
+      <c r="E64" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" customHeight="1" spans="1:7">
       <c r="A65" s="21">
         <v>42583</v>
       </c>
-      <c r="B65" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="30" t="s">
+      <c r="B65" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="E65" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="29"/>
+      <c r="E65" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
       <c r="A66" s="21">
         <v>42583</v>
       </c>
-      <c r="B66" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="30" t="s">
+      <c r="B66" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="30" t="s">
+      <c r="E66" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7405,190 +7405,190 @@
       <c r="A67" s="21">
         <v>42583</v>
       </c>
-      <c r="B67" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="33" t="s">
+      <c r="B67" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E67" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="29"/>
+      <c r="E67" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" customHeight="1" spans="1:7">
       <c r="A68" s="21">
         <v>42583</v>
       </c>
-      <c r="B68" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="30" t="s">
+      <c r="B68" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="29"/>
+      <c r="E68" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" customHeight="1" spans="1:7">
       <c r="A69" s="21">
         <v>42583</v>
       </c>
-      <c r="B69" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="30" t="s">
+      <c r="B69" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="29"/>
+      <c r="E69" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="28"/>
     </row>
     <row r="70" customHeight="1" spans="1:7">
       <c r="A70" s="21">
         <v>42583</v>
       </c>
-      <c r="B70" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="30" t="s">
+      <c r="B70" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E70" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="29"/>
+      <c r="E70" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="28"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
       <c r="A71" s="21">
         <v>42583</v>
       </c>
-      <c r="B71" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="30" t="s">
+      <c r="B71" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E71" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="29"/>
+      <c r="E71" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" customHeight="1" spans="1:7">
       <c r="A72" s="21">
         <v>42583</v>
       </c>
-      <c r="B72" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="30" t="s">
+      <c r="B72" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="E72" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="29"/>
+      <c r="E72" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" customHeight="1" spans="1:7">
       <c r="A73" s="21">
         <v>42583</v>
       </c>
-      <c r="B73" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="30" t="s">
+      <c r="B73" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E73" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="29"/>
+      <c r="E73" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="28"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="21">
         <v>42583</v>
       </c>
-      <c r="B74" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="30" t="s">
+      <c r="B74" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="E74" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="29"/>
+      <c r="E74" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="28"/>
     </row>
     <row r="75" customHeight="1" spans="1:7">
       <c r="A75" s="21">
         <v>42583</v>
       </c>
-      <c r="B75" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="30" t="s">
+      <c r="B75" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="E75" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="30" t="s">
+      <c r="E75" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7596,64 +7596,64 @@
       <c r="A76" s="21">
         <v>42583</v>
       </c>
-      <c r="B76" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="30" t="s">
+      <c r="B76" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E76" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="30" t="s">
+      <c r="E76" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="29"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" customHeight="1" spans="1:7">
       <c r="A77" s="21">
         <v>42583</v>
       </c>
-      <c r="B77" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="30" t="s">
+      <c r="B77" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E77" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="29"/>
+      <c r="E77" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="28"/>
     </row>
     <row r="78" customHeight="1" spans="1:7">
       <c r="A78" s="21">
         <v>42583</v>
       </c>
-      <c r="B78" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="30" t="s">
+      <c r="B78" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="30" t="s">
+      <c r="E78" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="29" t="s">
+      <c r="G78" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7661,22 +7661,22 @@
       <c r="A79" s="21">
         <v>42583</v>
       </c>
-      <c r="B79" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="30" t="s">
+      <c r="B79" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="E79" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="30" t="s">
+      <c r="E79" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="29" t="s">
+      <c r="G79" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7684,127 +7684,127 @@
       <c r="A80" s="21">
         <v>42583</v>
       </c>
-      <c r="B80" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="30" t="s">
+      <c r="B80" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="30" t="s">
+      <c r="E80" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="29"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" customHeight="1" spans="1:7">
       <c r="A81" s="21">
         <v>42583</v>
       </c>
-      <c r="B81" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="30" t="s">
+      <c r="B81" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="29"/>
+      <c r="E81" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
       <c r="A82" s="21">
         <v>42583</v>
       </c>
-      <c r="B82" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="30" t="s">
+      <c r="B82" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="30" t="s">
+      <c r="E82" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G82" s="29"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" customHeight="1" spans="1:7">
       <c r="A83" s="21">
         <v>42583</v>
       </c>
-      <c r="B83" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="33" t="s">
+      <c r="B83" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E83" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="30" t="s">
+      <c r="E83" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="29"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" customHeight="1" spans="1:7">
       <c r="A84" s="21">
         <v>42583</v>
       </c>
-      <c r="B84" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="30" t="s">
+      <c r="B84" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="29"/>
+      <c r="F84" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" customHeight="1" spans="1:7">
       <c r="A85" s="21">
         <v>42583</v>
       </c>
-      <c r="B85" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="30" t="s">
+      <c r="B85" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G85" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7812,22 +7812,22 @@
       <c r="A86" s="21">
         <v>42583</v>
       </c>
-      <c r="B86" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="34" t="s">
+      <c r="B86" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G86" s="29" t="s">
+      <c r="G86" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7835,22 +7835,22 @@
       <c r="A87" s="21">
         <v>42583</v>
       </c>
-      <c r="B87" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="30" t="s">
+      <c r="B87" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7858,22 +7858,22 @@
       <c r="A88" s="21">
         <v>42583</v>
       </c>
-      <c r="B88" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="30" t="s">
+      <c r="B88" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="30" t="s">
+      <c r="F88" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7881,22 +7881,22 @@
       <c r="A89" s="21">
         <v>42583</v>
       </c>
-      <c r="B89" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="30" t="s">
+      <c r="B89" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7904,22 +7904,22 @@
       <c r="A90" s="21">
         <v>42583</v>
       </c>
-      <c r="B90" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="30" t="s">
+      <c r="B90" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7927,22 +7927,22 @@
       <c r="A91" s="2">
         <v>42583</v>
       </c>
-      <c r="B91" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="30" t="s">
+      <c r="B91" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F91" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G91" s="29" t="s">
+      <c r="G91" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7950,22 +7950,22 @@
       <c r="A92" s="2">
         <v>42583</v>
       </c>
-      <c r="B92" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="30" t="s">
+      <c r="B92" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="G92" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7973,22 +7973,22 @@
       <c r="A93" s="2">
         <v>42583</v>
       </c>
-      <c r="B93" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="30" t="s">
+      <c r="B93" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="E93" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="29" t="s">
+      <c r="F93" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7996,43 +7996,43 @@
       <c r="A94" s="2">
         <v>42583</v>
       </c>
-      <c r="B94" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="30" t="s">
+      <c r="B94" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D94" s="33" t="s">
+      <c r="D94" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G94" s="29"/>
+      <c r="G94" s="28"/>
     </row>
     <row r="95" customHeight="1" spans="1:7">
       <c r="A95" s="2">
         <v>42583</v>
       </c>
-      <c r="B95" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="30" t="s">
+      <c r="B95" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D95" s="33" t="s">
+      <c r="D95" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E95" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="29" t="s">
+      <c r="F95" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8040,22 +8040,22 @@
       <c r="A96" s="2">
         <v>42583</v>
       </c>
-      <c r="B96" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="30" t="s">
+      <c r="B96" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="33" t="s">
+      <c r="D96" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="E96" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="F96" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G96" s="29" t="s">
+      <c r="G96" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8063,22 +8063,22 @@
       <c r="A97" s="2">
         <v>42583</v>
       </c>
-      <c r="B97" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="30" t="s">
+      <c r="B97" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D97" s="33" t="s">
+      <c r="D97" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="29" t="s">
+      <c r="F97" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8086,22 +8086,22 @@
       <c r="A98" s="2">
         <v>42583</v>
       </c>
-      <c r="B98" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="30" t="s">
+      <c r="B98" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="29" t="s">
+      <c r="F98" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8109,22 +8109,22 @@
       <c r="A99" s="2">
         <v>42583</v>
       </c>
-      <c r="B99" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="30" t="s">
+      <c r="B99" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G99" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8132,22 +8132,22 @@
       <c r="A100" s="2">
         <v>42583</v>
       </c>
-      <c r="B100" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="33" t="s">
+      <c r="B100" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="D100" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F100" s="30" t="s">
+      <c r="F100" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8155,22 +8155,22 @@
       <c r="A101" s="2">
         <v>42583</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E101" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G101" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8178,22 +8178,22 @@
       <c r="A102" s="2">
         <v>42583</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="C102" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="E102" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="30" t="s">
+      <c r="F102" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8201,22 +8201,22 @@
       <c r="A103" s="2">
         <v>42583</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C103" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="29" t="s">
+      <c r="F103" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8224,22 +8224,22 @@
       <c r="A104" s="2">
         <v>42583</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="33" t="s">
+      <c r="D104" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G104" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8247,43 +8247,43 @@
       <c r="A105" s="2">
         <v>42583</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="D105" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="E105" s="30" t="s">
+      <c r="E105" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F105" s="30" t="s">
+      <c r="F105" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="29"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" customHeight="1" spans="1:7">
       <c r="A106" s="2">
         <v>42583</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="D106" s="33" t="s">
+      <c r="D106" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="30" t="s">
+      <c r="F106" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8291,22 +8291,22 @@
       <c r="A107" s="2">
         <v>42583</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="33" t="s">
+      <c r="C107" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="D107" s="33" t="s">
+      <c r="D107" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G107" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8314,22 +8314,22 @@
       <c r="A108" s="2">
         <v>42583</v>
       </c>
-      <c r="B108" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C108" s="30" t="s">
+      <c r="B108" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D108" s="33" t="s">
+      <c r="D108" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F108" s="30" t="s">
+      <c r="F108" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="29" t="s">
+      <c r="G108" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8337,22 +8337,22 @@
       <c r="A109" s="2">
         <v>42583</v>
       </c>
-      <c r="B109" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" s="33" t="s">
+      <c r="B109" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D109" s="33" t="s">
+      <c r="D109" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="E109" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F109" s="30" t="s">
+      <c r="F109" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G109" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8360,22 +8360,22 @@
       <c r="A110" s="2">
         <v>42583</v>
       </c>
-      <c r="B110" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" s="33" t="s">
+      <c r="B110" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D110" s="33" t="s">
+      <c r="D110" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="E110" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F110" s="30" t="s">
+      <c r="F110" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G110" s="29" t="s">
+      <c r="G110" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8395,10 +8395,10 @@
       <c r="E111" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F111" s="30" t="s">
+      <c r="F111" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G111" s="29" t="s">
+      <c r="G111" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8418,10 +8418,10 @@
       <c r="E112" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F112" s="30" t="s">
+      <c r="F112" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G112" s="29" t="s">
+      <c r="G112" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       <c r="A113" s="2">
         <v>42583</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C113" s="24" t="s">
@@ -8441,10 +8441,10 @@
       <c r="E113" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F113" s="30" t="s">
+      <c r="F113" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G113" s="29" t="s">
+      <c r="G113" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8452,43 +8452,43 @@
       <c r="A114" s="2">
         <v>42583</v>
       </c>
-      <c r="B114" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="30" t="s">
+      <c r="B114" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="30" t="s">
+      <c r="F114" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="29"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="115" customHeight="1" spans="1:7">
       <c r="A115" s="2">
         <v>42583</v>
       </c>
-      <c r="B115" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C115" s="30" t="s">
+      <c r="B115" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="D115" s="33" t="s">
+      <c r="D115" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F115" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="29" t="s">
+      <c r="F115" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8496,22 +8496,22 @@
       <c r="A116" s="2">
         <v>42583</v>
       </c>
-      <c r="B116" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C116" s="30" t="s">
+      <c r="B116" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D116" s="37" t="s">
+      <c r="D116" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F116" s="30" t="s">
+      <c r="F116" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="29" t="s">
+      <c r="G116" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8519,43 +8519,43 @@
       <c r="A117" s="12">
         <v>42583</v>
       </c>
-      <c r="B117" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C117" s="30" t="s">
+      <c r="B117" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D117" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="30" t="s">
+      <c r="F117" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G117" s="29"/>
+      <c r="G117" s="28"/>
     </row>
     <row r="118" customHeight="1" spans="1:7">
       <c r="A118" s="12">
         <v>42583</v>
       </c>
-      <c r="B118" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C118" s="30" t="s">
+      <c r="B118" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E118" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="29" t="s">
+      <c r="E118" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8563,64 +8563,64 @@
       <c r="A119" s="21">
         <v>42583</v>
       </c>
-      <c r="B119" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" s="30" t="s">
+      <c r="B119" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="E119" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F119" s="30" t="s">
+      <c r="F119" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="29"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" customHeight="1" spans="1:7">
       <c r="A120" s="21">
         <v>42583</v>
       </c>
-      <c r="B120" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="30" t="s">
+      <c r="B120" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E120" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="30" t="s">
+      <c r="E120" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G120" s="29"/>
+      <c r="G120" s="28"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" s="21">
         <v>42583</v>
       </c>
-      <c r="B121" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="30" t="s">
+      <c r="B121" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="33" t="s">
+      <c r="D121" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="E121" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="30" t="s">
+      <c r="F121" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G121" s="29" t="s">
+      <c r="G121" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8628,43 +8628,43 @@
       <c r="A122" s="21">
         <v>42583</v>
       </c>
-      <c r="B122" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="30" t="s">
+      <c r="B122" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E122" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="29"/>
+      <c r="E122" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" customHeight="1" spans="1:7">
       <c r="A123" s="21">
         <v>42583</v>
       </c>
-      <c r="B123" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="30" t="s">
+      <c r="B123" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D123" s="33" t="s">
+      <c r="D123" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E123" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="30" t="s">
+      <c r="E123" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G123" s="29" t="s">
+      <c r="G123" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8672,22 +8672,22 @@
       <c r="A124" s="21">
         <v>42583</v>
       </c>
-      <c r="B124" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="30" t="s">
+      <c r="B124" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D124" s="30" t="s">
+      <c r="D124" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E124" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="30" t="s">
+      <c r="E124" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8695,22 +8695,22 @@
       <c r="A125" s="21">
         <v>42583</v>
       </c>
-      <c r="B125" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="30" t="s">
+      <c r="B125" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D125" s="30" t="s">
+      <c r="D125" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="E125" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="30" t="s">
+      <c r="F125" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G125" s="29" t="s">
+      <c r="G125" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8718,22 +8718,22 @@
       <c r="A126" s="21">
         <v>42583</v>
       </c>
-      <c r="B126" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" s="30" t="s">
+      <c r="B126" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D126" s="30" t="s">
+      <c r="D126" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E126" s="30" t="s">
+      <c r="E126" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="30" t="s">
+      <c r="F126" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G126" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       <c r="A127" s="21">
         <v>42583</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="B127" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C127" s="6" t="s">
@@ -8753,10 +8753,10 @@
       <c r="E127" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="30" t="s">
+      <c r="F127" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G127" s="29" t="s">
+      <c r="G127" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8764,390 +8764,390 @@
       <c r="A128" s="21">
         <v>42583</v>
       </c>
-      <c r="B128" s="29" t="s">
+      <c r="B128" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C128" s="30" t="s">
+      <c r="C128" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D128" s="33" t="s">
+      <c r="D128" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E128" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="30" t="s">
+      <c r="E128" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G128" s="29" t="s">
+      <c r="G128" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:7">
-      <c r="B129" s="29" t="s">
+      <c r="B129" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C129" s="30" t="s">
+      <c r="C129" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="33" t="s">
+      <c r="D129" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="30" t="s">
+      <c r="E129" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G129" s="29" t="s">
+      <c r="G129" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="2:7">
-      <c r="B130" s="29" t="s">
+      <c r="B130" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C130" s="30" t="s">
+      <c r="C130" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D130" s="33" t="s">
+      <c r="D130" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E130" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" s="29"/>
+      <c r="E130" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="28"/>
     </row>
     <row r="131" customHeight="1" spans="2:7">
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C131" s="33" t="s">
+      <c r="C131" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D131" s="33" t="s">
+      <c r="D131" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E131" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" s="29"/>
+      <c r="E131" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="28"/>
     </row>
     <row r="132" customHeight="1" spans="2:7">
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="30" t="s">
+      <c r="C132" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D132" s="33" t="s">
+      <c r="D132" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E132" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="30" t="s">
+      <c r="E132" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G132" s="29" t="s">
+      <c r="G132" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="2:7">
-      <c r="B133" s="29" t="s">
+      <c r="B133" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C133" s="30" t="s">
+      <c r="C133" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D133" s="33" t="s">
+      <c r="D133" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E133" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="30" t="s">
+      <c r="E133" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G133" s="29" t="s">
+      <c r="G133" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:7">
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C134" s="30" t="s">
+      <c r="C134" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D134" s="33" t="s">
+      <c r="D134" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E134" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="30" t="s">
+      <c r="E134" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G134" s="29" t="s">
+      <c r="G134" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="2:7">
-      <c r="B135" s="29" t="s">
+      <c r="B135" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C135" s="30" t="s">
+      <c r="C135" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D135" s="33" t="s">
+      <c r="D135" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E135" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="30" t="s">
+      <c r="E135" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G135" s="29" t="s">
+      <c r="G135" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:7">
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="30" t="s">
+      <c r="C136" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D136" s="33" t="s">
+      <c r="D136" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E136" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="30" t="s">
+      <c r="E136" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="29" t="s">
+      <c r="G136" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="2:7">
-      <c r="B137" s="29" t="s">
+      <c r="B137" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="33" t="s">
+      <c r="C137" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D137" s="33" t="s">
+      <c r="D137" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E137" s="30" t="s">
+      <c r="E137" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="30" t="s">
+      <c r="F137" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G137" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:7">
-      <c r="B138" s="29" t="s">
+      <c r="B138" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C138" s="33" t="s">
+      <c r="C138" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D138" s="33" t="s">
+      <c r="D138" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E138" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138" s="29"/>
+      <c r="E138" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="28"/>
     </row>
     <row r="139" customHeight="1" spans="2:7">
-      <c r="B139" s="29" t="s">
+      <c r="B139" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="33" t="s">
+      <c r="C139" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D139" s="33" t="s">
+      <c r="D139" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E139" s="30" t="s">
+      <c r="E139" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F139" s="30" t="s">
+      <c r="F139" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G139" s="29" t="s">
+      <c r="G139" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="2:7">
-      <c r="B140" s="29" t="s">
+      <c r="B140" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C140" s="30" t="s">
+      <c r="C140" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="D140" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E140" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" s="29"/>
+      <c r="E140" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="28"/>
     </row>
     <row r="141" customHeight="1" spans="2:7">
-      <c r="B141" s="29" t="s">
+      <c r="B141" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C141" s="33" t="s">
+      <c r="C141" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D141" s="33" t="s">
+      <c r="D141" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E141" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="30" t="s">
+      <c r="E141" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G141" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:7">
-      <c r="B142" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C142" s="30" t="s">
+      <c r="B142" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D142" s="33" t="s">
+      <c r="D142" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E142" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142" s="29"/>
+      <c r="E142" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="28"/>
     </row>
     <row r="143" customHeight="1" spans="2:7">
-      <c r="B143" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" s="30" t="s">
+      <c r="B143" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="D143" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E143" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="30" t="s">
+      <c r="E143" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="29" t="s">
+      <c r="G143" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="2:7">
-      <c r="B144" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C144" s="30" t="s">
+      <c r="B144" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C144" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D144" s="33" t="s">
+      <c r="D144" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E144" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="30" t="s">
+      <c r="E144" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="29" t="s">
+      <c r="G144" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:7">
-      <c r="B145" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C145" s="30" t="s">
+      <c r="B145" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D145" s="33" t="s">
+      <c r="D145" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E145" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G145" s="29"/>
+      <c r="E145" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="28"/>
     </row>
     <row r="146" customHeight="1" spans="2:7">
-      <c r="B146" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C146" s="30" t="s">
+      <c r="B146" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D146" s="33" t="s">
+      <c r="D146" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E146" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="30" t="s">
+      <c r="E146" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G146" s="29" t="s">
+      <c r="G146" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:7">
-      <c r="B147" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" s="33" t="s">
+      <c r="B147" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D147" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E147" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="30" t="s">
+      <c r="E147" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G147" s="29" t="s">
+      <c r="G147" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9164,10 +9164,10 @@
       <c r="E148" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G148" s="29"/>
+      <c r="F148" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="28"/>
     </row>
     <row r="149" customHeight="1" spans="2:7">
       <c r="B149" s="12" t="s">
@@ -9182,10 +9182,10 @@
       <c r="E149" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="30" t="s">
+      <c r="F149" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G149" s="29" t="s">
+      <c r="G149" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9202,10 +9202,10 @@
       <c r="E150" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F150" s="30" t="s">
+      <c r="F150" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G150" s="29" t="s">
+      <c r="G150" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9222,10 +9222,10 @@
       <c r="E151" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F151" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" s="29" t="s">
+      <c r="F151" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9242,1264 +9242,1264 @@
       <c r="E152" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G152" s="29"/>
+      <c r="F152" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="28"/>
     </row>
     <row r="153" customHeight="1" spans="2:7">
-      <c r="B153" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C153" s="30" t="s">
+      <c r="B153" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D153" s="33" t="s">
+      <c r="D153" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E153" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="30" t="s">
+      <c r="E153" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G153" s="29" t="s">
+      <c r="G153" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="2:7">
-      <c r="B154" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C154" s="30" t="s">
+      <c r="B154" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D154" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E154" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G154" s="29"/>
+      <c r="E154" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="28"/>
     </row>
     <row r="155" customHeight="1" spans="2:7">
-      <c r="B155" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C155" s="30" t="s">
+      <c r="B155" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D155" s="33" t="s">
+      <c r="D155" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E155" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G155" s="29"/>
+      <c r="E155" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="28"/>
     </row>
     <row r="156" customHeight="1" spans="2:7">
-      <c r="B156" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" s="30" t="s">
+      <c r="B156" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="D156" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E156" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G156" s="29"/>
+      <c r="E156" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="28"/>
     </row>
     <row r="157" customHeight="1" spans="2:7">
-      <c r="B157" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C157" s="30" t="s">
+      <c r="B157" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D157" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E157" s="30" t="s">
+      <c r="E157" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F157" s="30" t="s">
+      <c r="F157" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G157" s="29" t="s">
+      <c r="G157" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="2:7">
-      <c r="B158" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C158" s="30" t="s">
+      <c r="B158" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C158" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D158" s="30" t="s">
+      <c r="D158" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E158" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" s="30" t="s">
+      <c r="E158" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="G158" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="2:7">
-      <c r="B159" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" s="30" t="s">
+      <c r="B159" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159" s="29" t="s">
         <v>119</v>
       </c>
       <c r="D159" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E159" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="30" t="s">
+      <c r="E159" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G159" s="29"/>
+      <c r="G159" s="28"/>
     </row>
     <row r="160" customHeight="1" spans="2:7">
-      <c r="B160" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C160" s="30" t="s">
+      <c r="B160" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D160" s="33" t="s">
+      <c r="D160" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E160" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" s="29"/>
+      <c r="E160" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="28"/>
     </row>
     <row r="161" customHeight="1" spans="2:7">
-      <c r="B161" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" s="30" t="s">
+      <c r="B161" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D161" s="33" t="s">
+      <c r="D161" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E161" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G161" s="29"/>
+      <c r="E161" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="28"/>
     </row>
     <row r="162" customHeight="1" spans="2:7">
-      <c r="B162" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C162" s="30" t="s">
+      <c r="B162" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D162" s="33" t="s">
+      <c r="D162" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E162" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" s="29"/>
+      <c r="E162" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="28"/>
     </row>
     <row r="163" customHeight="1" spans="2:7">
-      <c r="B163" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C163" s="30" t="s">
+      <c r="B163" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D163" s="33" t="s">
+      <c r="D163" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E163" s="30" t="s">
+      <c r="E163" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G163" s="29"/>
+      <c r="F163" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="28"/>
     </row>
     <row r="164" customHeight="1" spans="2:7">
-      <c r="B164" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C164" s="30" t="s">
+      <c r="B164" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E164" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G164" s="29"/>
+      <c r="E164" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="28"/>
     </row>
     <row r="165" customHeight="1" spans="2:7">
-      <c r="B165" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C165" s="30" t="s">
+      <c r="B165" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D165" s="33" t="s">
+      <c r="D165" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E165" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="30" t="s">
+      <c r="E165" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G165" s="29" t="s">
+      <c r="G165" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="2:7">
-      <c r="B166" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C166" s="30" t="s">
+      <c r="B166" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C166" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="D166" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="E166" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" s="30" t="s">
+      <c r="E166" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G166" s="29" t="s">
+      <c r="G166" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="2:7">
-      <c r="B167" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C167" s="30" t="s">
+      <c r="B167" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C167" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D167" s="33" t="s">
+      <c r="D167" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E167" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G167" s="29"/>
+      <c r="E167" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="28"/>
     </row>
     <row r="168" customHeight="1" spans="2:7">
-      <c r="B168" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C168" s="30" t="s">
+      <c r="B168" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D168" s="33" t="s">
+      <c r="D168" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E168" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G168" s="29"/>
+      <c r="E168" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" customHeight="1" spans="2:7">
-      <c r="B169" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C169" s="30" t="s">
+      <c r="B169" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C169" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D169" s="33" t="s">
+      <c r="D169" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E169" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G169" s="29"/>
+      <c r="E169" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="28"/>
     </row>
     <row r="170" customHeight="1" spans="2:7">
-      <c r="B170" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C170" s="30" t="s">
+      <c r="B170" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C170" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D170" s="33" t="s">
+      <c r="D170" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E170" s="30" t="s">
+      <c r="E170" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F170" s="30" t="s">
+      <c r="F170" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G170" s="29" t="s">
+      <c r="G170" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="2:7">
-      <c r="B171" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C171" s="33" t="s">
+      <c r="B171" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D171" s="33" t="s">
+      <c r="D171" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E171" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G171" s="29"/>
+      <c r="E171" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="28"/>
     </row>
     <row r="172" customHeight="1" spans="2:7">
-      <c r="B172" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C172" s="30" t="s">
+      <c r="B172" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D172" s="33" t="s">
+      <c r="D172" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="E172" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G172" s="29"/>
+      <c r="E172" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" customHeight="1" spans="2:7">
-      <c r="B173" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" s="30" t="s">
+      <c r="B173" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="33" t="s">
+      <c r="D173" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="E173" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G173" s="29"/>
+      <c r="E173" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="28"/>
     </row>
     <row r="174" customHeight="1" spans="2:7">
-      <c r="B174" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C174" s="30" t="s">
+      <c r="B174" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C174" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D174" s="33" t="s">
+      <c r="D174" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E174" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" s="30" t="s">
+      <c r="E174" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G174" s="29" t="s">
+      <c r="G174" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="2:7">
-      <c r="B175" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C175" s="33" t="s">
+      <c r="B175" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D175" s="33" t="s">
+      <c r="D175" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E175" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G175" s="29"/>
+      <c r="E175" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="28"/>
     </row>
     <row r="176" customHeight="1" spans="2:7">
-      <c r="B176" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C176" s="30" t="s">
+      <c r="B176" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D176" s="33" t="s">
+      <c r="D176" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="E176" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G176" s="29"/>
+      <c r="E176" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="28"/>
     </row>
     <row r="177" customHeight="1" spans="2:7">
-      <c r="B177" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C177" s="30" t="s">
+      <c r="B177" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D177" s="33" t="s">
+      <c r="D177" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E177" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G177" s="29"/>
+      <c r="E177" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="28"/>
     </row>
     <row r="178" customHeight="1" spans="2:7">
-      <c r="B178" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C178" s="30" t="s">
+      <c r="B178" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C178" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D178" s="33" t="s">
+      <c r="D178" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E178" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F178" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G178" s="29"/>
+      <c r="E178" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="28"/>
     </row>
     <row r="179" customHeight="1" spans="2:7">
-      <c r="B179" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C179" s="30" t="s">
+      <c r="B179" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C179" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D179" s="33" t="s">
+      <c r="D179" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E179" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G179" s="29"/>
+      <c r="E179" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="28"/>
     </row>
     <row r="180" customHeight="1" spans="2:7">
-      <c r="B180" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C180" s="30" t="s">
+      <c r="B180" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C180" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D180" s="33" t="s">
+      <c r="D180" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="E180" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G180" s="29"/>
+      <c r="E180" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="28"/>
     </row>
     <row r="181" customHeight="1" spans="2:7">
-      <c r="B181" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C181" s="30" t="s">
+      <c r="B181" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C181" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D181" s="33" t="s">
+      <c r="D181" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E181" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G181" s="29"/>
+      <c r="E181" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="28"/>
     </row>
     <row r="182" customHeight="1" spans="2:7">
-      <c r="B182" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C182" s="30" t="s">
+      <c r="B182" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C182" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D182" s="33" t="s">
+      <c r="D182" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="E182" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G182" s="29"/>
+      <c r="E182" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="28"/>
     </row>
     <row r="183" customHeight="1" spans="2:7">
-      <c r="B183" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C183" s="30" t="s">
+      <c r="B183" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C183" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D183" s="33" t="s">
+      <c r="D183" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="E183" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F183" s="30" t="s">
+      <c r="E183" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G183" s="29" t="s">
+      <c r="G183" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="2:7">
-      <c r="B184" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C184" s="30" t="s">
+      <c r="B184" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="33" t="s">
+      <c r="D184" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E184" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F184" s="30" t="s">
+      <c r="E184" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G184" s="29"/>
+      <c r="G184" s="28"/>
     </row>
     <row r="185" customHeight="1" spans="2:7">
-      <c r="B185" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C185" s="30" t="s">
+      <c r="B185" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C185" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D185" s="33" t="s">
+      <c r="D185" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E185" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G185" s="29"/>
+      <c r="E185" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="28"/>
     </row>
     <row r="186" customHeight="1" spans="2:7">
-      <c r="B186" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C186" s="30" t="s">
+      <c r="B186" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C186" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D186" s="33" t="s">
+      <c r="D186" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E186" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186" s="30" t="s">
+      <c r="E186" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G186" s="29" t="s">
+      <c r="G186" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="2:7">
-      <c r="B187" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C187" s="30" t="s">
+      <c r="B187" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D187" s="33" t="s">
+      <c r="D187" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="E187" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" s="30" t="s">
+      <c r="E187" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G187" s="29" t="s">
+      <c r="G187" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="2:7">
-      <c r="B188" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C188" s="30" t="s">
+      <c r="B188" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C188" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D188" s="33" t="s">
+      <c r="D188" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E188" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F188" s="30" t="s">
+      <c r="E188" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G188" s="29"/>
+      <c r="G188" s="28"/>
     </row>
     <row r="189" customHeight="1" spans="2:7">
-      <c r="B189" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C189" s="30" t="s">
+      <c r="B189" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C189" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D189" s="33" t="s">
+      <c r="D189" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E189" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G189" s="29"/>
+      <c r="E189" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="28"/>
     </row>
     <row r="190" customHeight="1" spans="2:7">
-      <c r="B190" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C190" s="30" t="s">
+      <c r="B190" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C190" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D190" s="33" t="s">
+      <c r="D190" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E190" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F190" s="30" t="s">
+      <c r="E190" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G190" s="29"/>
+      <c r="G190" s="28"/>
     </row>
     <row r="191" customHeight="1" spans="2:7">
-      <c r="B191" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C191" s="33" t="s">
+      <c r="B191" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C191" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D191" s="33" t="s">
+      <c r="D191" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E191" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F191" s="30" t="s">
+      <c r="E191" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G191" s="29"/>
+      <c r="G191" s="28"/>
     </row>
     <row r="192" customHeight="1" spans="2:7">
-      <c r="B192" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C192" s="30" t="s">
+      <c r="B192" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C192" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D192" s="33" t="s">
+      <c r="D192" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E192" s="30" t="s">
+      <c r="E192" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F192" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G192" s="29"/>
+      <c r="F192" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="28"/>
     </row>
     <row r="193" customHeight="1" spans="2:7">
-      <c r="B193" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C193" s="30" t="s">
+      <c r="B193" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C193" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D193" s="33" t="s">
+      <c r="D193" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="E193" s="30" t="s">
+      <c r="E193" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F193" s="30" t="s">
+      <c r="F193" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G193" s="29" t="s">
+      <c r="G193" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="2:7">
-      <c r="B194" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C194" s="34" t="s">
+      <c r="B194" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D194" s="30" t="s">
+      <c r="D194" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E194" s="30" t="s">
+      <c r="E194" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F194" s="30" t="s">
+      <c r="F194" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G194" s="29" t="s">
+      <c r="G194" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="2:7">
-      <c r="B195" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C195" s="30" t="s">
+      <c r="B195" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D195" s="30" t="s">
+      <c r="D195" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E195" s="30" t="s">
+      <c r="E195" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F195" s="30" t="s">
+      <c r="F195" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G195" s="29" t="s">
+      <c r="G195" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="2:7">
-      <c r="B196" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C196" s="30" t="s">
+      <c r="B196" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D196" s="33" t="s">
+      <c r="D196" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E196" s="30" t="s">
+      <c r="E196" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F196" s="30" t="s">
+      <c r="F196" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G196" s="29" t="s">
+      <c r="G196" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="2:7">
-      <c r="B197" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C197" s="30" t="s">
+      <c r="B197" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D197" s="30" t="s">
+      <c r="D197" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E197" s="30" t="s">
+      <c r="E197" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F197" s="30" t="s">
+      <c r="F197" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G197" s="29" t="s">
+      <c r="G197" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="2:7">
-      <c r="B198" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C198" s="30" t="s">
+      <c r="B198" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D198" s="33" t="s">
+      <c r="D198" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="E198" s="30" t="s">
+      <c r="E198" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F198" s="30" t="s">
+      <c r="F198" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G198" s="29" t="s">
+      <c r="G198" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="2:7">
-      <c r="B199" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C199" s="30" t="s">
+      <c r="B199" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D199" s="30" t="s">
+      <c r="D199" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="E199" s="30" t="s">
+      <c r="E199" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F199" s="30" t="s">
+      <c r="F199" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G199" s="29" t="s">
+      <c r="G199" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="200" customHeight="1" spans="2:7">
-      <c r="B200" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C200" s="30" t="s">
+      <c r="B200" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D200" s="30" t="s">
+      <c r="D200" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E200" s="30" t="s">
+      <c r="E200" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F200" s="30" t="s">
+      <c r="F200" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G200" s="29" t="s">
+      <c r="G200" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="2:7">
-      <c r="B201" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C201" s="30" t="s">
+      <c r="B201" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D201" s="33" t="s">
+      <c r="D201" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="E201" s="30" t="s">
+      <c r="E201" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F201" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G201" s="29" t="s">
+      <c r="F201" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="2:7">
-      <c r="B202" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C202" s="30" t="s">
+      <c r="B202" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D202" s="33" t="s">
+      <c r="D202" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E202" s="30" t="s">
+      <c r="E202" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F202" s="30" t="s">
+      <c r="F202" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G202" s="29"/>
+      <c r="G202" s="28"/>
     </row>
     <row r="203" customHeight="1" spans="2:7">
-      <c r="B203" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C203" s="30" t="s">
+      <c r="B203" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D203" s="33" t="s">
+      <c r="D203" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="E203" s="30" t="s">
+      <c r="E203" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F203" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G203" s="29" t="s">
+      <c r="F203" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="2:7">
-      <c r="B204" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" s="30" t="s">
+      <c r="B204" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D204" s="33" t="s">
+      <c r="D204" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E204" s="30" t="s">
+      <c r="E204" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F204" s="30" t="s">
+      <c r="F204" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G204" s="29" t="s">
+      <c r="G204" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="2:7">
-      <c r="B205" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C205" s="30" t="s">
+      <c r="B205" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D205" s="33" t="s">
+      <c r="D205" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="E205" s="30" t="s">
+      <c r="E205" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F205" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G205" s="29" t="s">
+      <c r="F205" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="206" customHeight="1" spans="2:7">
-      <c r="B206" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" s="30" t="s">
+      <c r="B206" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="D206" s="30" t="s">
+      <c r="D206" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E206" s="30" t="s">
+      <c r="E206" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F206" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G206" s="29" t="s">
+      <c r="F206" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="2:7">
-      <c r="B207" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C207" s="30" t="s">
+      <c r="B207" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D207" s="30" t="s">
+      <c r="D207" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E207" s="30" t="s">
+      <c r="E207" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F207" s="30" t="s">
+      <c r="F207" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G207" s="29" t="s">
+      <c r="G207" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="2:7">
-      <c r="B208" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C208" s="33" t="s">
+      <c r="B208" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="D208" s="33" t="s">
+      <c r="D208" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E208" s="30" t="s">
+      <c r="E208" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F208" s="30" t="s">
+      <c r="F208" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G208" s="29" t="s">
+      <c r="G208" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="209" customHeight="1" spans="2:7">
-      <c r="B209" s="29" t="s">
+      <c r="B209" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C209" s="30" t="s">
+      <c r="C209" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="D209" s="33" t="s">
+      <c r="D209" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="E209" s="30" t="s">
+      <c r="E209" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F209" s="30" t="s">
+      <c r="F209" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G209" s="29" t="s">
+      <c r="G209" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="2:7">
-      <c r="B210" s="29" t="s">
+      <c r="B210" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C210" s="33" t="s">
+      <c r="C210" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D210" s="33" t="s">
+      <c r="D210" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="E210" s="30" t="s">
+      <c r="E210" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F210" s="30" t="s">
+      <c r="F210" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G210" s="29" t="s">
+      <c r="G210" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="2:7">
-      <c r="B211" s="29" t="s">
+      <c r="B211" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C211" s="33" t="s">
+      <c r="C211" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="D211" s="33" t="s">
+      <c r="D211" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E211" s="30" t="s">
+      <c r="E211" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F211" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G211" s="29" t="s">
+      <c r="F211" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="212" customHeight="1" spans="2:7">
-      <c r="B212" s="29" t="s">
+      <c r="B212" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C212" s="30" t="s">
+      <c r="C212" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D212" s="33" t="s">
+      <c r="D212" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="E212" s="30" t="s">
+      <c r="E212" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F212" s="30" t="s">
+      <c r="F212" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G212" s="29" t="s">
+      <c r="G212" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="2:7">
-      <c r="B213" s="29" t="s">
+      <c r="B213" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C213" s="35" t="s">
+      <c r="C213" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D213" s="36" t="s">
+      <c r="D213" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="E213" s="30" t="s">
+      <c r="E213" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F213" s="30" t="s">
+      <c r="F213" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G213" s="29"/>
+      <c r="G213" s="28"/>
     </row>
     <row r="214" customHeight="1" spans="2:7">
-      <c r="B214" s="29" t="s">
+      <c r="B214" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C214" s="33" t="s">
+      <c r="C214" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="D214" s="33" t="s">
+      <c r="D214" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E214" s="30" t="s">
+      <c r="E214" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F214" s="30" t="s">
+      <c r="F214" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G214" s="29" t="s">
+      <c r="G214" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="215" customHeight="1" spans="2:7">
-      <c r="B215" s="29" t="s">
+      <c r="B215" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C215" s="33" t="s">
+      <c r="C215" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="D215" s="33" t="s">
+      <c r="D215" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="E215" s="30" t="s">
+      <c r="E215" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F215" s="30" t="s">
+      <c r="F215" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G215" s="29" t="s">
+      <c r="G215" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="2:7">
-      <c r="B216" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C216" s="30" t="s">
+      <c r="B216" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C216" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D216" s="33" t="s">
+      <c r="D216" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="E216" s="30" t="s">
+      <c r="E216" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F216" s="30" t="s">
+      <c r="F216" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G216" s="29" t="s">
+      <c r="G216" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="2:7">
-      <c r="B217" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C217" s="33" t="s">
+      <c r="B217" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C217" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D217" s="33" t="s">
+      <c r="D217" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="E217" s="30" t="s">
+      <c r="E217" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F217" s="30" t="s">
+      <c r="F217" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G217" s="29" t="s">
+      <c r="G217" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="218" customHeight="1" spans="2:7">
-      <c r="B218" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C218" s="33" t="s">
+      <c r="B218" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C218" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D218" s="33" t="s">
+      <c r="D218" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E218" s="30" t="s">
+      <c r="E218" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F218" s="30" t="s">
+      <c r="F218" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G218" s="29" t="s">
+      <c r="G218" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10516,10 +10516,10 @@
       <c r="E219" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F219" s="30" t="s">
+      <c r="F219" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G219" s="29" t="s">
+      <c r="G219" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10536,15 +10536,15 @@
       <c r="E220" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F220" s="30" t="s">
+      <c r="F220" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G220" s="29" t="s">
+      <c r="G220" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="221" customHeight="1" spans="2:7">
-      <c r="B221" s="29" t="s">
+      <c r="B221" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C221" s="24" t="s">
@@ -10556,126 +10556,126 @@
       <c r="E221" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F221" s="30" t="s">
+      <c r="F221" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G221" s="29" t="s">
+      <c r="G221" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="2:7">
-      <c r="B222" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C222" s="30" t="s">
+      <c r="B222" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C222" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D222" s="33" t="s">
+      <c r="D222" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E222" s="30" t="s">
+      <c r="E222" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F222" s="30" t="s">
+      <c r="F222" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G222" s="29"/>
+      <c r="G222" s="28"/>
     </row>
     <row r="223" customHeight="1" spans="2:7">
-      <c r="B223" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C223" s="30" t="s">
+      <c r="B223" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C223" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="D223" s="33" t="s">
+      <c r="D223" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="E223" s="30" t="s">
+      <c r="E223" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F223" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G223" s="29" t="s">
+      <c r="F223" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="2:7">
-      <c r="B224" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C224" s="30" t="s">
+      <c r="B224" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C224" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D224" s="37" t="s">
+      <c r="D224" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="E224" s="30" t="s">
+      <c r="E224" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F224" s="30" t="s">
+      <c r="F224" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G224" s="29" t="s">
+      <c r="G224" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="225" customHeight="1" spans="2:7">
-      <c r="B225" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C225" s="30" t="s">
+      <c r="B225" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C225" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D225" s="33" t="s">
+      <c r="D225" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="E225" s="30" t="s">
+      <c r="E225" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F225" s="30" t="s">
+      <c r="F225" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G225" s="29"/>
+      <c r="G225" s="28"/>
     </row>
     <row r="226" customHeight="1" spans="2:7">
-      <c r="B226" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C226" s="30" t="s">
+      <c r="B226" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C226" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="D226" s="33" t="s">
+      <c r="D226" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E226" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F226" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G226" s="29" t="s">
+      <c r="E226" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="2:7">
-      <c r="B227" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C227" s="30" t="s">
+      <c r="B227" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C227" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="D227" s="33" t="s">
+      <c r="D227" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="E227" s="30" t="s">
+      <c r="E227" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F227" s="30" t="s">
+      <c r="F227" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G227" s="29"/>
+      <c r="G227" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -10686,10 +10686,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L377"/>
+  <dimension ref="A1:L378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B356" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B348" workbookViewId="0">
+      <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -16586,7 +16586,7 @@
       <c r="C346" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="D346" s="28" t="s">
+      <c r="D346" s="4" t="s">
         <v>703</v>
       </c>
       <c r="E346" t="s">
@@ -16597,7 +16597,7 @@
       <c r="C347" t="s">
         <v>704</v>
       </c>
-      <c r="D347" s="28" t="s">
+      <c r="D347" s="4" t="s">
         <v>705</v>
       </c>
       <c r="E347" t="s">
@@ -16608,7 +16608,7 @@
       <c r="C348" t="s">
         <v>706</v>
       </c>
-      <c r="D348" s="28" t="s">
+      <c r="D348" s="4" t="s">
         <v>707</v>
       </c>
       <c r="E348" t="s">
@@ -16630,7 +16630,7 @@
       <c r="C350" t="s">
         <v>710</v>
       </c>
-      <c r="D350" s="28" t="s">
+      <c r="D350" s="4" t="s">
         <v>711</v>
       </c>
       <c r="E350" t="s">
@@ -16641,7 +16641,7 @@
       <c r="C351" t="s">
         <v>712</v>
       </c>
-      <c r="D351" s="28" t="s">
+      <c r="D351" s="4" t="s">
         <v>713</v>
       </c>
       <c r="E351" t="s">
@@ -16652,7 +16652,7 @@
       <c r="C352" t="s">
         <v>714</v>
       </c>
-      <c r="D352" s="28" t="s">
+      <c r="D352" s="4" t="s">
         <v>715</v>
       </c>
       <c r="E352" t="s">
@@ -16663,7 +16663,7 @@
       <c r="C353" t="s">
         <v>716</v>
       </c>
-      <c r="D353" s="28" t="s">
+      <c r="D353" s="4" t="s">
         <v>717</v>
       </c>
       <c r="E353" t="s">
@@ -16674,7 +16674,7 @@
       <c r="C354" t="s">
         <v>718</v>
       </c>
-      <c r="D354" s="28" t="s">
+      <c r="D354" s="4" t="s">
         <v>719</v>
       </c>
       <c r="E354" t="s">
@@ -16685,7 +16685,7 @@
       <c r="C355" t="s">
         <v>720</v>
       </c>
-      <c r="D355" s="28" t="s">
+      <c r="D355" s="4" t="s">
         <v>721</v>
       </c>
       <c r="E355" t="s">
@@ -16696,7 +16696,7 @@
       <c r="C356" t="s">
         <v>722</v>
       </c>
-      <c r="D356" s="28" t="s">
+      <c r="D356" s="4" t="s">
         <v>723</v>
       </c>
       <c r="E356" t="s">
@@ -16707,7 +16707,7 @@
       <c r="C357" t="s">
         <v>724</v>
       </c>
-      <c r="D357" s="28" t="s">
+      <c r="D357" s="4" t="s">
         <v>725</v>
       </c>
       <c r="E357" t="s">
@@ -16718,7 +16718,7 @@
       <c r="C358" t="s">
         <v>726</v>
       </c>
-      <c r="D358" s="28" t="s">
+      <c r="D358" s="4" t="s">
         <v>727</v>
       </c>
       <c r="E358" t="s">
@@ -16729,7 +16729,7 @@
       <c r="C359" t="s">
         <v>728</v>
       </c>
-      <c r="D359" s="28" t="s">
+      <c r="D359" s="4" t="s">
         <v>729</v>
       </c>
       <c r="E359" t="s">
@@ -16751,7 +16751,7 @@
       <c r="C361" t="s">
         <v>732</v>
       </c>
-      <c r="D361" s="28" t="s">
+      <c r="D361" s="4" t="s">
         <v>733</v>
       </c>
       <c r="E361" t="s">
@@ -16773,7 +16773,7 @@
       <c r="C363" t="s">
         <v>735</v>
       </c>
-      <c r="D363" s="28" t="s">
+      <c r="D363" s="4" t="s">
         <v>736</v>
       </c>
       <c r="E363" t="s">
@@ -16784,7 +16784,7 @@
       <c r="C364" t="s">
         <v>737</v>
       </c>
-      <c r="D364" s="28" t="s">
+      <c r="D364" s="4" t="s">
         <v>738</v>
       </c>
       <c r="E364" t="s">
@@ -16795,7 +16795,7 @@
       <c r="C365" t="s">
         <v>739</v>
       </c>
-      <c r="D365" s="28" t="s">
+      <c r="D365" s="4" t="s">
         <v>740</v>
       </c>
       <c r="E365" t="s">
@@ -16806,7 +16806,7 @@
       <c r="C366" t="s">
         <v>741</v>
       </c>
-      <c r="D366" s="28" t="s">
+      <c r="D366" s="4" t="s">
         <v>742</v>
       </c>
       <c r="E366" t="s">
@@ -16817,7 +16817,7 @@
       <c r="C367" t="s">
         <v>743</v>
       </c>
-      <c r="D367" s="28" t="s">
+      <c r="D367" s="4" t="s">
         <v>744</v>
       </c>
       <c r="E367" t="s">
@@ -16828,7 +16828,7 @@
       <c r="C368" t="s">
         <v>745</v>
       </c>
-      <c r="D368" s="28" t="s">
+      <c r="D368" s="4" t="s">
         <v>746</v>
       </c>
       <c r="E368" t="s">
@@ -16861,7 +16861,7 @@
       <c r="C371" t="s">
         <v>751</v>
       </c>
-      <c r="D371" s="28" t="s">
+      <c r="D371" s="4" t="s">
         <v>752</v>
       </c>
       <c r="E371" t="s">
@@ -16872,7 +16872,7 @@
       <c r="C372" t="s">
         <v>753</v>
       </c>
-      <c r="D372" s="28" t="s">
+      <c r="D372" s="4" t="s">
         <v>754</v>
       </c>
       <c r="E372" t="s">
@@ -16883,7 +16883,7 @@
       <c r="C373" t="s">
         <v>755</v>
       </c>
-      <c r="D373" s="28" t="s">
+      <c r="D373" s="4" t="s">
         <v>756</v>
       </c>
       <c r="E373" t="s">
@@ -16894,7 +16894,7 @@
       <c r="C374" t="s">
         <v>757</v>
       </c>
-      <c r="D374" s="28" t="s">
+      <c r="D374" s="4" t="s">
         <v>758</v>
       </c>
       <c r="E374" t="s">
@@ -16916,7 +16916,7 @@
       <c r="C376" t="s">
         <v>761</v>
       </c>
-      <c r="D376" s="28" t="s">
+      <c r="D376" s="4" t="s">
         <v>762</v>
       </c>
       <c r="E376" t="s">
@@ -16927,15 +16927,20 @@
       <c r="C377" t="s">
         <v>763</v>
       </c>
-      <c r="D377" s="28" t="s">
+      <c r="D377" s="4" t="s">
         <v>764</v>
       </c>
       <c r="E377" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="378" customHeight="1" spans="3:3">
+      <c r="C378" t="s">
+        <v>765</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E345"/>
+  <autoFilter ref="A1:E377"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/机器人统计新表8.1_葛程.xlsx
+++ b/机器人统计新表8.1_葛程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18450" activeTab="2"/>
+    <workbookView windowWidth="18480" windowHeight="18180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回答结果统计" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="回答明细" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">回答明细!$A$1:$E$377</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">回答明细!$A$1:$E$378</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765">
   <si>
     <t>时间</t>
   </si>
@@ -4574,19 +4574,16 @@
 2016-08-02 23:00:34 小琼 关联问题 3：我填了B47 增值税纳税申报表附列资料（五）（不动产分期抵扣计算表），还要填什么地方吗？
 解答：B47第2列等于B07增值税纳税申报表附列资料（二）（本期进项税额明细）第9行税额；B47第3列等于B07增值税纳税申报表附列资料（二）（本期进项税额明细）第10行税额。</t>
   </si>
-  <si>
-    <t>test</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="28">
@@ -4634,7 +4631,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4642,8 +4645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4665,13 +4669,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4679,6 +4676,76 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4700,81 +4767,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4824,7 +4821,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4836,67 +4863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4908,61 +4881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4980,7 +4905,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4992,19 +4977,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5031,13 +5028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5051,17 +5052,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5081,17 +5082,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5114,16 +5111,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5136,10 +5133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5148,19 +5145,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5169,112 +5166,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5532,7 +5529,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -10686,10 +10683,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L378"/>
+  <dimension ref="A1:L377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B348" workbookViewId="0">
-      <selection activeCell="C379" sqref="C379"/>
+      <selection activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -16934,13 +16931,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" customHeight="1" spans="3:3">
-      <c r="C378" t="s">
-        <v>765</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E377"/>
+  <autoFilter ref="A1:E378"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/机器人统计新表8.1_葛程.xlsx
+++ b/机器人统计新表8.1_葛程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="18180" activeTab="2"/>
+    <workbookView windowHeight="18030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回答结果统计" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="回答明细" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">回答明细!$A$1:$E$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">回答明细!$A$1:$E$378</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767">
   <si>
     <t>时间</t>
   </si>
@@ -2889,7 +2889,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="����"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
@@ -2907,7 +2907,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="����"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2926,7 +2926,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="����"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>[</t>
     </r>
@@ -2944,7 +2944,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="����"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>]</t>
     </r>
@@ -2962,7 +2962,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="����"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>[</t>
     </r>
@@ -2980,7 +2980,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="����"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>]</t>
     </r>
@@ -4574,19 +4574,25 @@
 2016-08-02 23:00:34 小琼 关联问题 3：我填了B47 增值税纳税申报表附列资料（五）（不动产分期抵扣计算表），还要填什么地方吗？
 解答：B47第2列等于B07增值税纳税申报表附列资料（二）（本期进项税额明细）第9行税额；B47第3列等于B07增值税纳税申报表附列资料（二）（本期进项税额明细）第10行税额。</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4622,6 +4628,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4632,12 +4645,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4652,16 +4733,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4692,7 +4781,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4700,78 +4789,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4785,7 +4805,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="����"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -4797,79 +4817,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4881,19 +4853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4911,7 +4871,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4923,85 +5003,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5024,6 +5044,74 @@
       <top/>
       <bottom style="medium">
         <color rgb="FFBED6F6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5057,221 +5145,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5294,10 +5314,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -5360,8 +5380,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5387,7 +5407,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -5402,31 +5422,31 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5507,8 +5527,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1771650" y="51117500"/>
-          <a:ext cx="1238250" cy="317500"/>
+          <a:off x="1771650" y="51015265"/>
+          <a:ext cx="1238250" cy="316865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5532,7 +5552,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5789,9 +5809,9 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:13">
+    <row r="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5878,7 +5898,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" ht="26" customHeight="1" spans="2:12">
+    <row r="3" ht="26.1" customHeight="1" spans="2:12">
       <c r="B3" s="42">
         <f>B2/M2</f>
         <v>0.142441860465116</v>
@@ -5939,7 +5959,7 @@
       <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -10686,13 +10706,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L377"/>
+  <dimension ref="A1:L379"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B356" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+      <selection activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
@@ -16586,7 +16606,7 @@
       <c r="C346" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="D346" s="28" t="s">
+      <c r="D346" s="4" t="s">
         <v>703</v>
       </c>
       <c r="E346" t="s">
@@ -16597,7 +16617,7 @@
       <c r="C347" t="s">
         <v>704</v>
       </c>
-      <c r="D347" s="28" t="s">
+      <c r="D347" s="4" t="s">
         <v>705</v>
       </c>
       <c r="E347" t="s">
@@ -16608,7 +16628,7 @@
       <c r="C348" t="s">
         <v>706</v>
       </c>
-      <c r="D348" s="28" t="s">
+      <c r="D348" s="4" t="s">
         <v>707</v>
       </c>
       <c r="E348" t="s">
@@ -16630,7 +16650,7 @@
       <c r="C350" t="s">
         <v>710</v>
       </c>
-      <c r="D350" s="28" t="s">
+      <c r="D350" s="4" t="s">
         <v>711</v>
       </c>
       <c r="E350" t="s">
@@ -16641,7 +16661,7 @@
       <c r="C351" t="s">
         <v>712</v>
       </c>
-      <c r="D351" s="28" t="s">
+      <c r="D351" s="4" t="s">
         <v>713</v>
       </c>
       <c r="E351" t="s">
@@ -16652,7 +16672,7 @@
       <c r="C352" t="s">
         <v>714</v>
       </c>
-      <c r="D352" s="28" t="s">
+      <c r="D352" s="4" t="s">
         <v>715</v>
       </c>
       <c r="E352" t="s">
@@ -16663,7 +16683,7 @@
       <c r="C353" t="s">
         <v>716</v>
       </c>
-      <c r="D353" s="28" t="s">
+      <c r="D353" s="4" t="s">
         <v>717</v>
       </c>
       <c r="E353" t="s">
@@ -16674,7 +16694,7 @@
       <c r="C354" t="s">
         <v>718</v>
       </c>
-      <c r="D354" s="28" t="s">
+      <c r="D354" s="4" t="s">
         <v>719</v>
       </c>
       <c r="E354" t="s">
@@ -16685,7 +16705,7 @@
       <c r="C355" t="s">
         <v>720</v>
       </c>
-      <c r="D355" s="28" t="s">
+      <c r="D355" s="4" t="s">
         <v>721</v>
       </c>
       <c r="E355" t="s">
@@ -16696,7 +16716,7 @@
       <c r="C356" t="s">
         <v>722</v>
       </c>
-      <c r="D356" s="28" t="s">
+      <c r="D356" s="4" t="s">
         <v>723</v>
       </c>
       <c r="E356" t="s">
@@ -16707,7 +16727,7 @@
       <c r="C357" t="s">
         <v>724</v>
       </c>
-      <c r="D357" s="28" t="s">
+      <c r="D357" s="4" t="s">
         <v>725</v>
       </c>
       <c r="E357" t="s">
@@ -16718,7 +16738,7 @@
       <c r="C358" t="s">
         <v>726</v>
       </c>
-      <c r="D358" s="28" t="s">
+      <c r="D358" s="4" t="s">
         <v>727</v>
       </c>
       <c r="E358" t="s">
@@ -16729,7 +16749,7 @@
       <c r="C359" t="s">
         <v>728</v>
       </c>
-      <c r="D359" s="28" t="s">
+      <c r="D359" s="4" t="s">
         <v>729</v>
       </c>
       <c r="E359" t="s">
@@ -16751,7 +16771,7 @@
       <c r="C361" t="s">
         <v>732</v>
       </c>
-      <c r="D361" s="28" t="s">
+      <c r="D361" s="4" t="s">
         <v>733</v>
       </c>
       <c r="E361" t="s">
@@ -16773,7 +16793,7 @@
       <c r="C363" t="s">
         <v>735</v>
       </c>
-      <c r="D363" s="28" t="s">
+      <c r="D363" s="4" t="s">
         <v>736</v>
       </c>
       <c r="E363" t="s">
@@ -16784,7 +16804,7 @@
       <c r="C364" t="s">
         <v>737</v>
       </c>
-      <c r="D364" s="28" t="s">
+      <c r="D364" s="4" t="s">
         <v>738</v>
       </c>
       <c r="E364" t="s">
@@ -16795,7 +16815,7 @@
       <c r="C365" t="s">
         <v>739</v>
       </c>
-      <c r="D365" s="28" t="s">
+      <c r="D365" s="4" t="s">
         <v>740</v>
       </c>
       <c r="E365" t="s">
@@ -16806,7 +16826,7 @@
       <c r="C366" t="s">
         <v>741</v>
       </c>
-      <c r="D366" s="28" t="s">
+      <c r="D366" s="4" t="s">
         <v>742</v>
       </c>
       <c r="E366" t="s">
@@ -16817,7 +16837,7 @@
       <c r="C367" t="s">
         <v>743</v>
       </c>
-      <c r="D367" s="28" t="s">
+      <c r="D367" s="4" t="s">
         <v>744</v>
       </c>
       <c r="E367" t="s">
@@ -16828,7 +16848,7 @@
       <c r="C368" t="s">
         <v>745</v>
       </c>
-      <c r="D368" s="28" t="s">
+      <c r="D368" s="4" t="s">
         <v>746</v>
       </c>
       <c r="E368" t="s">
@@ -16861,7 +16881,7 @@
       <c r="C371" t="s">
         <v>751</v>
       </c>
-      <c r="D371" s="28" t="s">
+      <c r="D371" s="4" t="s">
         <v>752</v>
       </c>
       <c r="E371" t="s">
@@ -16872,7 +16892,7 @@
       <c r="C372" t="s">
         <v>753</v>
       </c>
-      <c r="D372" s="28" t="s">
+      <c r="D372" s="4" t="s">
         <v>754</v>
       </c>
       <c r="E372" t="s">
@@ -16883,7 +16903,7 @@
       <c r="C373" t="s">
         <v>755</v>
       </c>
-      <c r="D373" s="28" t="s">
+      <c r="D373" s="4" t="s">
         <v>756</v>
       </c>
       <c r="E373" t="s">
@@ -16894,7 +16914,7 @@
       <c r="C374" t="s">
         <v>757</v>
       </c>
-      <c r="D374" s="28" t="s">
+      <c r="D374" s="4" t="s">
         <v>758</v>
       </c>
       <c r="E374" t="s">
@@ -16916,7 +16936,7 @@
       <c r="C376" t="s">
         <v>761</v>
       </c>
-      <c r="D376" s="28" t="s">
+      <c r="D376" s="4" t="s">
         <v>762</v>
       </c>
       <c r="E376" t="s">
@@ -16927,16 +16947,27 @@
       <c r="C377" t="s">
         <v>763</v>
       </c>
-      <c r="D377" s="28" t="s">
+      <c r="D377" s="4" t="s">
         <v>764</v>
       </c>
       <c r="E377" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="378" customHeight="1" spans="3:3">
+      <c r="C378" s="28" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="379" customHeight="1" spans="3:3">
+      <c r="C379" t="s">
+        <v>766</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E345"/>
+  <autoFilter ref="A1:E378"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/机器人统计新表8.1_葛程.xlsx
+++ b/机器人统计新表8.1_葛程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="18180" activeTab="2"/>
+    <workbookView windowHeight="18450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回答结果统计" sheetId="1" r:id="rId1"/>
@@ -4631,8 +4631,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4647,9 +4648,86 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4669,39 +4747,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4715,61 +4768,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4821,7 +4821,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4833,85 +4989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4923,85 +5001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5028,6 +5028,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5043,26 +5054,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5084,11 +5095,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5102,25 +5111,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5133,10 +5133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5145,31 +5145,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5178,100 +5184,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5529,7 +5529,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -10683,10 +10683,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L377"/>
+  <dimension ref="A1:L391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B348" workbookViewId="0">
-      <selection activeCell="D380" sqref="D380"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B358" workbookViewId="0">
+      <selection activeCell="E387" sqref="E387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -16931,6 +16931,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="391" customHeight="1" spans="3:3">
+      <c r="C391">
+        <v>7879787</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E378"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/机器人统计新表8.1_葛程.xlsx
+++ b/机器人统计新表8.1_葛程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18450" activeTab="2"/>
+    <workbookView windowWidth="18480" windowHeight="18180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回答结果统计" sheetId="1" r:id="rId1"/>
@@ -4580,10 +4580,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="28">
@@ -4631,9 +4631,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4648,14 +4647,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4672,6 +4679,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4700,8 +4714,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4709,7 +4731,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4723,43 +4745,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -4769,7 +4754,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4821,7 +4821,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4833,13 +4905,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4851,85 +4977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4941,67 +4995,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5024,32 +5024,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FFBED6F6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5079,6 +5053,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -5089,6 +5093,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5110,21 +5125,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5133,10 +5133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5145,133 +5145,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5529,7 +5529,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -10683,10 +10683,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L391"/>
+  <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B358" workbookViewId="0">
-      <selection activeCell="E387" sqref="E387"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B364" workbookViewId="0">
+      <selection activeCell="C393" sqref="C393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -16936,6 +16936,11 @@
         <v>7879787</v>
       </c>
     </row>
+    <row r="392" customHeight="1" spans="3:3">
+      <c r="C392">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E378"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
